--- a/views/financeiro/relatorios/resumo_campanha_72.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_72.xlsx
@@ -687,10 +687,10 @@
         <v>68.0</v>
       </c>
       <c r="H9" s="8">
-        <v>0</v>
+        <v>3400.0</v>
       </c>
       <c r="I9" s="8">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -791,10 +791,10 @@
         <v>260.8</v>
       </c>
       <c r="H13" s="9">
-        <v>8050.0</v>
+        <v>11450.0</v>
       </c>
       <c r="I13" s="9">
-        <v>161.0</v>
+        <v>229.0</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1040,10 +1040,10 @@
         <v>260.8</v>
       </c>
       <c r="H26" s="8">
-        <v>8050.0</v>
+        <v>11450.0</v>
       </c>
       <c r="I26" s="8">
-        <v>161.0</v>
+        <v>229.0</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1118,10 +1118,10 @@
         <v>296.6</v>
       </c>
       <c r="H29" s="9">
-        <v>8050.0</v>
+        <v>11450.0</v>
       </c>
       <c r="I29" s="9">
-        <v>161.0</v>
+        <v>229.0</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1174,10 +1174,10 @@
         <v>5980.0</v>
       </c>
       <c r="E34" s="13">
-        <v>2580.0</v>
+        <v>5980.0</v>
       </c>
       <c r="F34" s="12">
-        <v>3400.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1307,11 +1307,11 @@
       </c>
       <c r="E43" s="9">
         <f>sum(E33:E42)</f>
-        <v>50305.9</v>
+        <v>53705.9</v>
       </c>
       <c r="F43" s="9">
         <f>sum(F33:F42)</f>
-        <v>6780</v>
+        <v>3380</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E44" s="15">
         <f>(E43/D43)</f>
-        <v>0.88123161761486</v>
+        <v>0.94079098341272</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="E45" s="15">
         <f>(F43/D43)</f>
-        <v>0.11876838238514</v>
+        <v>0.059209016587283</v>
       </c>
     </row>
   </sheetData>

--- a/views/financeiro/relatorios/resumo_campanha_72.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_72.xlsx
@@ -848,10 +848,10 @@
         <v>35.8</v>
       </c>
       <c r="H17" s="8">
-        <v>0</v>
+        <v>1790.0</v>
       </c>
       <c r="I17" s="8">
-        <v>0.0</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -900,10 +900,10 @@
         <v>35.8</v>
       </c>
       <c r="H19" s="9">
-        <v>0</v>
+        <v>1790.0</v>
       </c>
       <c r="I19" s="9">
-        <v>0.0</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1066,10 +1066,10 @@
         <v>35.8</v>
       </c>
       <c r="H27" s="8">
-        <v>0</v>
+        <v>1790.0</v>
       </c>
       <c r="I27" s="8">
-        <v>0.0</v>
+        <v>35.8</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1118,10 +1118,10 @@
         <v>296.6</v>
       </c>
       <c r="H29" s="9">
-        <v>11450.0</v>
+        <v>13240.0</v>
       </c>
       <c r="I29" s="9">
-        <v>229.0</v>
+        <v>264.8</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1249,10 +1249,10 @@
         <v>1790.0</v>
       </c>
       <c r="E39" s="13">
-        <v>0</v>
+        <v>1790.0</v>
       </c>
       <c r="F39" s="12">
-        <v>1790.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1307,11 +1307,11 @@
       </c>
       <c r="E43" s="9">
         <f>sum(E33:E42)</f>
-        <v>53705.9</v>
+        <v>55495.9</v>
       </c>
       <c r="F43" s="9">
         <f>sum(F33:F42)</f>
-        <v>3380</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E44" s="15">
         <f>(E43/D43)</f>
-        <v>0.94079098341272</v>
+        <v>0.97214723775924</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="E45" s="15">
         <f>(F43/D43)</f>
-        <v>0.059209016587283</v>
+        <v>0.027852762240763</v>
       </c>
     </row>
   </sheetData>

--- a/views/financeiro/relatorios/resumo_campanha_72.xlsx
+++ b/views/financeiro/relatorios/resumo_campanha_72.xlsx
@@ -713,10 +713,10 @@
         <v>57.8</v>
       </c>
       <c r="H10" s="8">
-        <v>1300.0</v>
+        <v>2890.0</v>
       </c>
       <c r="I10" s="8">
-        <v>26.0</v>
+        <v>57.8</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -791,10 +791,10 @@
         <v>260.8</v>
       </c>
       <c r="H13" s="9">
-        <v>11450.0</v>
+        <v>13040.0</v>
       </c>
       <c r="I13" s="9">
-        <v>229.0</v>
+        <v>260.8</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1040,10 +1040,10 @@
         <v>260.8</v>
       </c>
       <c r="H26" s="8">
-        <v>11450.0</v>
+        <v>13040.0</v>
       </c>
       <c r="I26" s="8">
-        <v>229.0</v>
+        <v>260.8</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1118,10 +1118,10 @@
         <v>296.6</v>
       </c>
       <c r="H29" s="9">
-        <v>13240.0</v>
+        <v>14830.0</v>
       </c>
       <c r="I29" s="9">
-        <v>264.8</v>
+        <v>296.6</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1191,10 +1191,10 @@
         <v>5890.0</v>
       </c>
       <c r="E35" s="13">
-        <v>4300.0</v>
+        <v>5890.0</v>
       </c>
       <c r="F35" s="12">
-        <v>1590.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1307,11 +1307,11 @@
       </c>
       <c r="E43" s="9">
         <f>sum(E33:E42)</f>
-        <v>55495.9</v>
+        <v>57085.9</v>
       </c>
       <c r="F43" s="9">
         <f>sum(F33:F42)</f>
-        <v>1590</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="E44" s="15">
         <f>(E43/D43)</f>
-        <v>0.97214723775924</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="E45" s="15">
         <f>(F43/D43)</f>
-        <v>0.027852762240763</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
